--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="users" r:id="rId3" sheetId="1"/>
+    <sheet name="boards" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>no</t>
   </si>
@@ -150,6 +151,63 @@
   </si>
   <si>
     <t>010</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>view_count</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aaaax</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:10</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:36</t>
   </si>
 </sst>
 </file>
@@ -390,4 +448,102 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="users" r:id="rId3" sheetId="1"/>
     <sheet name="boards" r:id="rId4" sheetId="2"/>
+    <sheet name="projects" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>no</t>
   </si>
@@ -168,12 +169,15 @@
     <t>aaa</t>
   </si>
   <si>
-    <t>aaaax</t>
+    <t>aaaa</t>
   </si>
   <si>
     <t>2024-07-22 13:26:10</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>bbb</t>
   </si>
   <si>
@@ -195,9 +199,6 @@
     <t>2024-07-22 13:26:19</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -208,6 +209,57 @@
   </si>
   <si>
     <t>2024-07-22 13:26:36</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2024-1-1</t>
+  </si>
+  <si>
+    <t>2024-2-2</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>2024-3-3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>2024-4-4</t>
+  </si>
+  <si>
+    <t>2,5,12</t>
+  </si>
+  <si>
+    <t>p4</t>
   </si>
 </sst>
 </file>
@@ -489,7 +541,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -497,33 +549,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +592,120 @@
         <v>64</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>no</t>
   </si>
@@ -163,6 +163,15 @@
     <t>user17@test.com</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user18@test.com</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -229,6 +238,15 @@
     <t>2024-07-24 17:19:31</t>
   </si>
   <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>ffffffff</t>
+  </si>
+  <si>
+    <t>2024-07-24 17:33:41</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -277,13 +295,19 @@
     <t>2,5,12</t>
   </si>
   <si>
-    <t>p4</t>
+    <t>p4x</t>
+  </si>
+  <si>
+    <t>p5</t>
   </si>
   <si>
     <t>2024-5-5</t>
   </si>
   <si>
-    <t>2024-6-6</t>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -328,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -538,6 +562,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -545,7 +586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -573,16 +614,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -590,13 +631,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>5</v>
@@ -604,36 +645,36 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -641,16 +682,33 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -691,19 +749,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -711,56 +769,56 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>76</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>10</v>
@@ -771,19 +829,39 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>81</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>no</t>
   </si>
@@ -271,7 +271,7 @@
     <t>2024-2-2</t>
   </si>
   <si>
-    <t>1,2,5</t>
+    <t/>
   </si>
   <si>
     <t>p2</t>
@@ -283,16 +283,10 @@
     <t>2024-3-3</t>
   </si>
   <si>
-    <t>5,6</t>
-  </si>
-  <si>
     <t>p3</t>
   </si>
   <si>
     <t>2024-4-4</t>
-  </si>
-  <si>
-    <t>2,5,12</t>
   </si>
   <si>
     <t>p4x</t>
@@ -781,7 +775,7 @@
         <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -789,7 +783,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>82</v>
@@ -798,10 +792,10 @@
         <v>83</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -809,7 +803,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>87</v>
@@ -821,7 +815,7 @@
         <v>88</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -829,16 +823,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>87</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>85</v>
@@ -849,10 +843,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>83</v>
@@ -861,7 +855,7 @@
         <v>84</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>no</t>
   </si>
@@ -196,15 +196,18 @@
     <t>0</t>
   </si>
   <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>bbbb</t>
+    <t>bbbxxx</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>2024-07-22 13:26:14</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
     <t>2024-07-22 13:26:19</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>ddd</t>
   </si>
   <si>
@@ -238,13 +238,16 @@
     <t>2024-07-24 17:19:31</t>
   </si>
   <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>ffffffff</t>
-  </si>
-  <si>
-    <t>2024-07-24 17:33:41</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>gggg</t>
+  </si>
+  <si>
+    <t>2024-07-25 12:07:35</t>
   </si>
   <si>
     <t>description</t>
@@ -257,51 +260,6 @@
   </si>
   <si>
     <t>members</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>2024-1-1</t>
-  </si>
-  <si>
-    <t>2024-2-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>2024-3-3</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>2024-4-4</t>
-  </si>
-  <si>
-    <t>p4x</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>2024-5-5</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -634,21 +592,21 @@
         <v>62</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>59</v>
@@ -656,7 +614,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>68</v>
@@ -690,19 +648,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +670,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -726,136 +684,16 @@
         <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId3" sheetId="1"/>
     <sheet name="boards" r:id="rId4" sheetId="2"/>
     <sheet name="projects" r:id="rId5" sheetId="3"/>
+    <sheet name="users" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
   <si>
     <t>no</t>
   </si>
@@ -259,61 +259,67 @@
     <t>members</t>
   </si>
   <si>
-    <t>p1xx</t>
-  </si>
-  <si>
-    <t>xxxx</t>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2024-1-1</t>
   </si>
   <si>
     <t>2024-2-2</t>
   </si>
   <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>2024-3-3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>2024-4-4</t>
+  </si>
+  <si>
+    <t>2,5,12</t>
+  </si>
+  <si>
+    <t>p4x</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
     <t>2024-5-5</t>
   </si>
   <si>
-    <t>2,6,9</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>2024-3-3</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>2024-1-1</t>
-  </si>
-  <si>
-    <t>2024-4-4</t>
-  </si>
-  <si>
-    <t>2,5,12</t>
-  </si>
-  <si>
-    <t>p4x</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
-    <t>12,13,15</t>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user19@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-0019</t>
   </si>
 </sst>
 </file>
@@ -356,240 +362,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E7"/>
@@ -724,7 +496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,7 +553,7 @@
         <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>88</v>
@@ -798,16 +570,16 @@
         <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -815,13 +587,13 @@
         <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>87</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>88</v>
@@ -832,22 +604,293 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>96</v>
       </c>
+      <c r="C7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
       <c r="B6" t="s" s="0">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="B14" t="s" s="0">
         <v>99</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="105">
   <si>
     <t>no</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>010-1111-0019</t>
+  </si>
+  <si>
+    <t>user19xxx</t>
+  </si>
+  <si>
+    <t>user19xxx@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-1119</t>
   </si>
 </sst>
 </file>
@@ -881,16 +890,16 @@
         <v>98</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="boards" r:id="rId4" sheetId="2"/>
     <sheet name="projects" r:id="rId5" sheetId="3"/>
-    <sheet name="users" r:id="rId6" sheetId="4"/>
+    <sheet name="users" r:id="rId6" sheetId="6"/>
+    <sheet name="boards" r:id="rId7" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="109">
   <si>
     <t>no</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>010-1111-1119</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>gggxx</t>
+  </si>
+  <si>
+    <t>2024-07-25 16:56:23</t>
   </si>
 </sst>
 </file>
@@ -371,138 +383,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
@@ -656,7 +536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -905,4 +785,136 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="projects" r:id="rId5" sheetId="3"/>
-    <sheet name="users" r:id="rId6" sheetId="6"/>
-    <sheet name="boards" r:id="rId7" sheetId="7"/>
+    <sheet name="users" r:id="rId6" sheetId="11"/>
+    <sheet name="boards" r:id="rId7" sheetId="12"/>
+    <sheet name="projects" r:id="rId5" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="115">
   <si>
     <t>no</t>
   </si>
@@ -341,6 +341,24 @@
   </si>
   <si>
     <t>2024-07-25 16:56:23</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>p7xx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>2024-5-6</t>
+  </si>
+  <si>
+    <t>2024-6-6</t>
+  </si>
+  <si>
+    <t>2,12,13,14</t>
   </si>
 </sst>
 </file>
@@ -383,7 +401,390 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -428,7 +829,7 @@
         <v>84</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +849,7 @@
         <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -468,416 +869,27 @@
         <v>91</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>87</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -885,16 +897,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -902,16 +917,19 @@
         <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>63</v>
+        <v>113</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="11"/>
-    <sheet name="boards" r:id="rId7" sheetId="12"/>
-    <sheet name="projects" r:id="rId5" sheetId="13"/>
+    <sheet name="users" r:id="rId6" sheetId="7"/>
+    <sheet name="boards" r:id="rId7" sheetId="8"/>
+    <sheet name="projects" r:id="rId5" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="98">
   <si>
     <t>no</t>
   </si>
@@ -308,57 +308,6 @@
   </si>
   <si>
     <t>xxx</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>user19</t>
-  </si>
-  <si>
-    <t>user19@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-0019</t>
-  </si>
-  <si>
-    <t>user19xxx</t>
-  </si>
-  <si>
-    <t>user19xxx@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-1119</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>gggxx</t>
-  </si>
-  <si>
-    <t>2024-07-25 16:56:23</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>p7xx</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>2024-5-6</t>
-  </si>
-  <si>
-    <t>2024-6-6</t>
-  </si>
-  <si>
-    <t>2,12,13,14</t>
   </si>
 </sst>
 </file>
@@ -401,9 +350,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -630,29 +579,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -708,7 +640,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -747,36 +679,36 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -829,7 +761,7 @@
         <v>84</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -849,7 +781,7 @@
         <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -869,67 +801,67 @@
         <v>91</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>87</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="7"/>
-    <sheet name="boards" r:id="rId7" sheetId="8"/>
-    <sheet name="projects" r:id="rId5" sheetId="9"/>
+    <sheet name="users" r:id="rId6" sheetId="19"/>
+    <sheet name="boards" r:id="rId7" sheetId="20"/>
+    <sheet name="projects" r:id="rId5" sheetId="21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="98">
   <si>
     <t>no</t>
   </si>
@@ -350,7 +350,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -584,7 +584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -716,7 +716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="19"/>
-    <sheet name="boards" r:id="rId7" sheetId="20"/>
-    <sheet name="projects" r:id="rId5" sheetId="21"/>
+    <sheet name="users" r:id="rId6" sheetId="25"/>
+    <sheet name="boards" r:id="rId7" sheetId="26"/>
+    <sheet name="projects" r:id="rId5" sheetId="27"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="105">
   <si>
     <t>no</t>
   </si>
@@ -308,6 +308,27 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>user20@test.com</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>ggggggg</t>
+  </si>
+  <si>
+    <t>2024-07-26 14:23:23</t>
   </si>
 </sst>
 </file>
@@ -350,9 +371,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,14 +600,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -711,12 +749,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>
